--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1341,7 +1342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,17 +1353,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1372,13 +1393,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5880</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>22</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1626,7 +1627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1637,17 +1638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1657,14 +1678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -1673,13 +1716,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1949,7 +1950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1960,17 +1961,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1980,14 +2001,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.7</v>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1996,14 +2039,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2012,13 +2077,399 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>22</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,887 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009864</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商景气优选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4296</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商兴和优选1年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6299</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011450</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商企业优选混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>82.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4787</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>217005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>71.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4407</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009865</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商景气优选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3904</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006364</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>招商丰韵混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.32</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3220</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008075</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商核心优选股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2984</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>080012</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长盛电子信息产业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2618</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008404</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>77.05</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1941</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>217012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商行业领先混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519095</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>新华行业周期轮换混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008405</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰紫金泰盈混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>77.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1742</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>560003</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>益民创新优势混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>85.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1402</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>011694</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1281</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002272</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新华科技创新主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1238</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006365</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商丰韵混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0596</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011695</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>82.42</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011451</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>招商企业优选混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>82.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008076</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商核心优选股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>9.34</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>960019</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商行业领先混合H</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.34</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1344,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002211</t>
+          <t>040011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实新财富灵活配置混合</t>
+          <t>华安核心混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.76</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5880</t>
+          <t>0.4799</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1433,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>560003</t>
+          <t>162207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>益民创新优势混合</t>
+          <t>泰达宏利效率优选混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.50</t>
+          <t>69.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1820</t>
+          <t>0.1764</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1471,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>560002</t>
+          <t>011729</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>益民红利成长混合</t>
+          <t>工银聚享混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.03</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1208</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1509,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000410</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>益民服务领先灵活配置混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0296</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1547,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>005331</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>益民优势安享灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>88.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0213</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1585,36 +795,186 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>85.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,36 +1361,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>040011</t>
+          <t>002211</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安核心混合</t>
+          <t>嘉实新财富灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.83</t>
+          <t>24.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>11.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4799</t>
+          <t>0.5880</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2039,36 +1399,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162207</t>
+          <t>560003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
+          <t>益民创新优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.08</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1764</t>
+          <t>0.1820</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2077,36 +1437,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011729</t>
+          <t>560002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银聚享混合A</t>
+          <t>益民红利成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>83.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.1208</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2115,36 +1475,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>000410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>益民服务领先灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2153,32 +1513,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005331</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>益民优势安享灵活配置混合</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.75</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0213</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2191,186 +1551,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>080015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长盛中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.34</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>85.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
         <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011730</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银聚享混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>28.52</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2384,96 +1594,886 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4787</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519095</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业周期轮换混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002272</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华科技创新主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.53</v>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.76</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.53</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -982,7 +1283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1304,7 +1605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1588,7 +1889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
+++ b/数据整理/stocks/A股/科创板/688303-大全能源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.53</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012675</t>
+          <t>005870</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华融融泽6个月定开混合A</t>
+          <t>鹏华沪深300指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>57.46</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0165</t>
+          <t>0.2341</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>016690</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>鹏华沪深300指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.05</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0089</t>
+          <t>0.0766</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>014938</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合A</t>
+          <t>同泰产业升级混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>68.98</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -736,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012676</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华融融泽6个月定开混合C</t>
+          <t>长盛同鑫行业配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57.46</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0030</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -774,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>010991</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>长盛同鑫行业配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.41</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -812,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010991</t>
+          <t>014939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合C</t>
+          <t>同泰产业升级混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.49</t>
+          <t>68.98</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>-0.0003</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -850,6 +867,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012675</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华融融泽6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1889,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
